--- a/FiltaIRRPACalc.xlsx
+++ b/FiltaIRRPACalc.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>Month 1</t>
   </si>
@@ -133,9 +133,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>*17, current mix of customers, 13 Essex County, 4 Bergen County</t>
   </si>
   <si>
     <t>*current gross sales for December 2018 between both counties</t>
@@ -279,6 +276,12 @@
   </si>
   <si>
     <t>Assumption ($16 per hour, 40 hr/wk)</t>
+  </si>
+  <si>
+    <t>*gross is defined as net 15% rebate to NCA</t>
+  </si>
+  <si>
+    <t>*18, current mix of customers</t>
   </si>
 </sst>
 </file>
@@ -715,6 +718,9 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,9 +748,6 @@
     <xf numFmtId="44" fontId="10" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1081,7 +1084,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1091,16 +1094,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1" outlineLevel="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1" outlineLevel="1"/>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="29"/>
       <c r="O2" s="22"/>
@@ -1231,7 +1234,7 @@
         <v>17</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
@@ -1298,7 +1301,7 @@
         <v>112800</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
@@ -1364,7 +1367,9 @@
         <f t="shared" ref="N5" si="3">0.75*N4</f>
         <v>84600</v>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
       <c r="R5" s="23"/>
@@ -1516,7 +1521,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N9" s="30"/>
       <c r="O9" s="22"/>
@@ -1544,7 +1549,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1596,62 +1601,62 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1">
-        <f>(40*4*(17*1))</f>
-        <v>2720</v>
+        <f>(40*4*(16*1.5))</f>
+        <v>3840</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ref="C12:M12" si="8">(40*4*(17*1))</f>
-        <v>2720</v>
+        <f>B12</f>
+        <v>3840</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="8"/>
-        <v>2720</v>
+        <f t="shared" ref="D12:M12" si="8">C12</f>
+        <v>3840</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>3840</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>3840</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>3840</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>3840</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>3840</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>3840</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>3840</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>3840</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="8"/>
-        <v>2720</v>
+        <v>3840</v>
       </c>
       <c r="N12" s="31">
         <f>SUM(B12:M12)</f>
-        <v>32640</v>
+        <v>46080</v>
       </c>
       <c r="O12" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P12" s="23"/>
       <c r="Q12" s="23"/>
@@ -1679,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P13" s="23"/>
       <c r="Q13" s="23"/>
@@ -1695,58 +1700,58 @@
       </c>
       <c r="B14" s="1">
         <f>0.0724*B12</f>
-        <v>196.92800000000003</v>
+        <v>278.01600000000002</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:M14" si="10">0.0724*C12</f>
-        <v>196.92800000000003</v>
+        <f>0.0724*C12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*D12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*E12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*F12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*G12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*H12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*I12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*J12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*K12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*L12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="10"/>
-        <v>196.92800000000003</v>
+        <f>0.0724*M12</f>
+        <v>278.01600000000002</v>
       </c>
       <c r="N14" s="33">
         <f>SUM(B14:M14)</f>
-        <v>2363.1360000000004</v>
+        <v>3336.1920000000005</v>
       </c>
       <c r="O14" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
@@ -1758,7 +1763,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="1">
         <v>438</v>
@@ -1801,7 +1806,7 @@
         <v>5256</v>
       </c>
       <c r="O15" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P15" s="23"/>
       <c r="Q15" s="23"/>
@@ -1820,7 +1825,7 @@
         <v>1190</v>
       </c>
       <c r="C16" s="1">
-        <f>B16</f>
+        <f t="shared" ref="C16:C23" si="10">B16</f>
         <v>1190</v>
       </c>
       <c r="D16" s="1">
@@ -1868,7 +1873,7 @@
         <v>14280</v>
       </c>
       <c r="O16" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
@@ -1886,7 +1891,7 @@
         <v>450</v>
       </c>
       <c r="C17" s="1">
-        <f>B17</f>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="D17" s="1">
@@ -1934,7 +1939,7 @@
         <v>5400</v>
       </c>
       <c r="O17" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" s="23"/>
       <c r="Q17" s="23"/>
@@ -1952,7 +1957,7 @@
         <v>200</v>
       </c>
       <c r="C18" s="1">
-        <f>B18</f>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="D18" s="1">
@@ -2000,7 +2005,7 @@
         <v>2400</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
@@ -2019,7 +2024,7 @@
         <v>300</v>
       </c>
       <c r="C19" s="1">
-        <f>B19</f>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="D19" s="1">
@@ -2083,7 +2088,7 @@
         <v>100</v>
       </c>
       <c r="C20" s="1">
-        <f>B20</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="D20" s="1">
@@ -2147,7 +2152,7 @@
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <f>B21</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="D21" s="1">
@@ -2211,7 +2216,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="1">
-        <f>B22</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="D22" s="1">
@@ -2275,7 +2280,7 @@
         <v>50</v>
       </c>
       <c r="C23" s="1">
-        <f>B23</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="D23" s="1">
@@ -2356,7 +2361,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2372,7 +2377,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="31">
         <f>N11+SUM(N14:N23)</f>
-        <v>35819.135999999999</v>
+        <v>36792.192000000003</v>
       </c>
       <c r="O25" s="22"/>
       <c r="P25" s="23"/>
@@ -2385,14 +2390,14 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N26" s="31">
         <f>N12+(SUM(N14:N23))</f>
-        <v>68459.135999999999</v>
+        <v>82872.19200000001</v>
       </c>
       <c r="O26" s="22"/>
       <c r="P26" s="23"/>
@@ -2417,7 +2422,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N28" s="30"/>
       <c r="O28" s="22"/>
@@ -2429,7 +2434,7 @@
       <c r="U28" s="23"/>
       <c r="V28" s="24"/>
     </row>
-    <row r="29" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>552</v>
       </c>
       <c r="O29" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
@@ -2484,7 +2489,7 @@
       <c r="U29" s="23"/>
       <c r="V29" s="24"/>
     </row>
-    <row r="30" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>24</v>
       </c>
@@ -2529,7 +2534,7 @@
         <v>1620</v>
       </c>
       <c r="O30" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
@@ -2539,7 +2544,7 @@
       <c r="U30" s="23"/>
       <c r="V30" s="24"/>
     </row>
-    <row r="31" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -2568,9 +2573,9 @@
       <c r="U31" s="23"/>
       <c r="V31" s="24"/>
     </row>
-    <row r="32" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1">
         <v>1500</v>
@@ -2624,7 +2629,7 @@
         <v>18000</v>
       </c>
       <c r="O32" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -2634,7 +2639,7 @@
       <c r="U32" s="23"/>
       <c r="V32" s="24"/>
     </row>
-    <row r="33" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -2687,7 +2692,7 @@
       <c r="U33" s="23"/>
       <c r="V33" s="24"/>
     </row>
-    <row r="34" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -2740,7 +2745,7 @@
       <c r="U34" s="23"/>
       <c r="V34" s="24"/>
     </row>
-    <row r="35" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>30</v>
       </c>
@@ -2793,7 +2798,7 @@
       <c r="U35" s="23"/>
       <c r="V35" s="24"/>
     </row>
-    <row r="36" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
@@ -2838,7 +2843,7 @@
         <v>1200</v>
       </c>
       <c r="O36" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
@@ -2848,7 +2853,7 @@
       <c r="U36" s="23"/>
       <c r="V36" s="24"/>
     </row>
-    <row r="37" spans="1:22" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>28</v>
       </c>
@@ -2901,9 +2906,9 @@
       <c r="U37" s="23"/>
       <c r="V37" s="24"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2955,18 +2960,18 @@
       <c r="V39" s="27"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
+      <c r="A40" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="76"/>
+      <c r="C40" s="77"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
+      <c r="E40" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="74"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2976,22 +2981,22 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="61"/>
       <c r="C41" s="62">
         <f>N4-N25-N38</f>
-        <v>55608.864000000001</v>
+        <v>54635.80799999999</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="61"/>
       <c r="G41" s="61"/>
       <c r="H41" s="62">
         <f>N4-N26-N38</f>
-        <v>22968.864000000001</v>
+        <v>8555.80799999999</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -3001,22 +3006,22 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="64"/>
       <c r="C42" s="65">
         <f>N5-N25-N38</f>
-        <v>27408.864000000001</v>
+        <v>26435.807999999997</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="64"/>
       <c r="G42" s="64"/>
       <c r="H42" s="65">
         <f>N5-N26-N38</f>
-        <v>-5231.1359999999986</v>
+        <v>-19644.19200000001</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -3026,22 +3031,22 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="65">
         <f>N6-N25-N38</f>
-        <v>-791.1359999999986</v>
+        <v>-1764.1920000000027</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F43" s="64"/>
       <c r="G43" s="64"/>
       <c r="H43" s="65">
         <f>N6-N26-N38</f>
-        <v>-33431.135999999999</v>
+        <v>-47844.19200000001</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -3051,22 +3056,22 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" s="67"/>
       <c r="C44" s="68">
         <f>N7-N25-N38</f>
-        <v>44328.864000000001</v>
+        <v>43355.807999999997</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F44" s="67"/>
       <c r="G44" s="67"/>
       <c r="H44" s="68">
         <f>N7-N26-N38</f>
-        <v>11688.864000000001</v>
+        <v>-2724.19200000001</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -3115,39 +3120,39 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="J47" s="76"/>
-      <c r="K47" s="77"/>
+      <c r="I47" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" s="79"/>
+      <c r="K47" s="80"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" s="51" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="G48" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="G48" s="51" t="s">
+      <c r="H48" s="36" t="s">
         <v>61</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>62</v>
       </c>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
@@ -3158,33 +3163,33 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="45">
         <f>IRR(C49:G49)</f>
-        <v>38.927917165692662</v>
+        <v>38.246867861681714</v>
       </c>
       <c r="C49" s="54">
         <v>-1000</v>
       </c>
       <c r="D49" s="54">
         <f>C41*0.7</f>
-        <v>38926.2048</v>
+        <v>38245.065599999987</v>
       </c>
       <c r="E49" s="7">
         <f t="shared" ref="E49:F52" si="21">D49</f>
-        <v>38926.2048</v>
+        <v>38245.065599999987</v>
       </c>
       <c r="F49" s="54">
         <f t="shared" si="21"/>
-        <v>38926.2048</v>
+        <v>38245.065599999987</v>
       </c>
       <c r="G49" s="55">
         <f>F49+N4</f>
-        <v>151726.20480000001</v>
+        <v>151045.06559999997</v>
       </c>
       <c r="H49" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I49" s="39"/>
       <c r="J49" s="39"/>
@@ -3194,33 +3199,33 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="79">
+        <v>63</v>
+      </c>
+      <c r="B50" s="70">
         <f t="shared" ref="B50:B52" si="22">IRR(C50:G50)</f>
-        <v>19.195851252044097</v>
-      </c>
-      <c r="C50" s="80">
+        <v>18.515736731308412</v>
+      </c>
+      <c r="C50" s="71">
         <v>-1000</v>
       </c>
       <c r="D50" s="57">
         <f>C42*0.7</f>
-        <v>19186.2048</v>
+        <v>18505.065599999998</v>
       </c>
       <c r="E50" s="8">
         <f t="shared" si="21"/>
-        <v>19186.2048</v>
+        <v>18505.065599999998</v>
       </c>
       <c r="F50" s="57">
         <f t="shared" si="21"/>
-        <v>19186.2048</v>
+        <v>18505.065599999998</v>
       </c>
       <c r="G50" s="58">
         <f>F50+N5</f>
-        <v>103786.20480000001</v>
+        <v>103105.0656</v>
       </c>
       <c r="H50" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I50" s="41"/>
       <c r="J50" s="41"/>
@@ -3230,33 +3235,33 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="79">
+        <v>64</v>
+      </c>
+      <c r="B51" s="70">
         <f t="shared" si="22"/>
-        <v>1.5421132406024376</v>
-      </c>
-      <c r="C51" s="80">
+        <v>1.3362754438491287</v>
+      </c>
+      <c r="C51" s="71">
         <v>-1000</v>
       </c>
       <c r="D51" s="57">
         <f>C43*0.7</f>
-        <v>-553.795199999999</v>
+        <v>-1234.9344000000019</v>
       </c>
       <c r="E51" s="8">
         <f t="shared" si="21"/>
-        <v>-553.795199999999</v>
+        <v>-1234.9344000000019</v>
       </c>
       <c r="F51" s="57">
         <f t="shared" si="21"/>
-        <v>-553.795199999999</v>
+        <v>-1234.9344000000019</v>
       </c>
       <c r="G51" s="58">
         <f>F51+N6</f>
-        <v>55846.2048</v>
+        <v>55165.065600000002</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I51" s="43"/>
       <c r="J51" s="43"/>
@@ -3266,165 +3271,165 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="46">
         <f t="shared" si="22"/>
-        <v>31.033167443950227</v>
+        <v>30.352223294155312</v>
       </c>
       <c r="C52" s="57">
         <v>-1000</v>
       </c>
       <c r="D52" s="57">
         <f>C44*0.7</f>
-        <v>31030.2048</v>
+        <v>30349.065599999994</v>
       </c>
       <c r="E52" s="8">
         <f t="shared" si="21"/>
-        <v>31030.2048</v>
+        <v>30349.065599999994</v>
       </c>
       <c r="F52" s="57">
         <f t="shared" si="21"/>
-        <v>31030.2048</v>
+        <v>30349.065599999994</v>
       </c>
       <c r="G52" s="58">
         <f>F52+N7</f>
-        <v>132550.20480000001</v>
+        <v>131869.0656</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" s="52" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="52" t="s">
+      <c r="G53" s="52" t="s">
         <v>60</v>
-      </c>
-      <c r="G53" s="52" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="46">
         <f>IRR(C54:G54)</f>
-        <v>16.099259234983283</v>
+        <v>6.2427860524274479</v>
       </c>
       <c r="C54" s="8">
         <v>-1000</v>
       </c>
       <c r="D54" s="8">
         <f>H41*0.7</f>
-        <v>16078.2048</v>
+        <v>5989.0655999999926</v>
       </c>
       <c r="E54" s="8">
         <f t="shared" ref="E54:F57" si="23">D54</f>
-        <v>16078.2048</v>
+        <v>5989.0655999999926</v>
       </c>
       <c r="F54" s="8">
         <f t="shared" si="23"/>
-        <v>16078.2048</v>
+        <v>5989.0655999999926</v>
       </c>
       <c r="G54" s="9">
         <f>F54+N4</f>
-        <v>128878.20480000001</v>
+        <v>118789.06559999999</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="46">
         <f>IRR(C55:G55)</f>
-        <v>1.1351447182999901</v>
+        <v>0.27354042869019191</v>
       </c>
       <c r="C55" s="8">
         <v>-1000</v>
       </c>
       <c r="D55" s="8">
         <f>H42*0.7</f>
-        <v>-3661.7951999999987</v>
+        <v>-13750.934400000006</v>
       </c>
       <c r="E55" s="8">
         <f t="shared" si="23"/>
-        <v>-3661.7951999999987</v>
+        <v>-13750.934400000006</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" si="23"/>
-        <v>-3661.7951999999987</v>
+        <v>-13750.934400000006</v>
       </c>
       <c r="G55" s="9">
         <f>F55+N5</f>
-        <v>80938.204800000007</v>
+        <v>70849.065600000002</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="48">
+        <v>64</v>
+      </c>
+      <c r="B56" s="48" t="e">
         <f>IRR(C56:G56)</f>
-        <v>-0.3348893692912317</v>
+        <v>#NUM!</v>
       </c>
       <c r="C56" s="8">
         <v>-1000</v>
       </c>
       <c r="D56" s="8">
         <f>H43*0.7</f>
-        <v>-23401.795199999997</v>
+        <v>-33490.934400000006</v>
       </c>
       <c r="E56" s="8">
         <f t="shared" si="23"/>
-        <v>-23401.795199999997</v>
+        <v>-33490.934400000006</v>
       </c>
       <c r="F56" s="8">
         <f t="shared" si="23"/>
-        <v>-23401.795199999997</v>
+        <v>-33490.934400000006</v>
       </c>
       <c r="G56" s="9">
         <f>F56+N6</f>
-        <v>32998.204800000007</v>
+        <v>22909.065599999994</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="47">
-        <f t="shared" ref="B55:B57" si="24">IRR(C57:G57)</f>
-        <v>8.2939604208229731</v>
-      </c>
-      <c r="C57" s="78">
+        <f t="shared" ref="B57" si="24">IRR(C57:G57)</f>
+        <v>1.6209033178716479</v>
+      </c>
+      <c r="C57" s="69">
         <v>-1000</v>
       </c>
       <c r="D57" s="10">
         <f>H44*0.7</f>
-        <v>8182.2048000000004</v>
+        <v>-1906.9344000000069</v>
       </c>
       <c r="E57" s="10">
         <f t="shared" si="23"/>
-        <v>8182.2048000000004</v>
+        <v>-1906.9344000000069</v>
       </c>
       <c r="F57" s="10">
         <f t="shared" si="23"/>
-        <v>8182.2048000000004</v>
+        <v>-1906.9344000000069</v>
       </c>
       <c r="G57" s="11">
         <f>F57+N7</f>
-        <v>109702.20480000001</v>
+        <v>99613.065599999987</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
